--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_BATTERY.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_BATTERY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B3163F-31A6-4A53-BF19-B56A39DF02AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4435CC5A-55DF-429B-8E6F-3508CEB34031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18E424C9-512F-47B1-A09D-BF457F184610}"/>
   </bookViews>
@@ -30,14 +30,6 @@
     <t>Giá mua</t>
   </si>
   <si>
-    <t>Giá bán
-R0</t>
-  </si>
-  <si>
-    <t>Giá bán
-R1</t>
-  </si>
-  <si>
     <t>Đại lý</t>
   </si>
   <si>
@@ -162,6 +154,12 @@
   </si>
   <si>
     <t>Đại lý F</t>
+  </si>
+  <si>
+    <t>Giá bán R0</t>
+  </si>
+  <si>
+    <t>Giá bán R1</t>
   </si>
 </sst>
 </file>
@@ -608,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8F569A-15AF-49B9-BA0F-43E4AFF2337F}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,343 +621,356 @@
     <col min="7" max="7" width="31.109375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5">
         <v>45570</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N3" s="3">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O3" s="3">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>25000</v>
+      </c>
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="5">
         <v>45571</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N4" s="3">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O4" s="3">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>25000</v>
+      </c>
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5">
         <v>45572</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N5" s="3">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O5" s="3">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>25000</v>
+      </c>
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5">
         <v>45573</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N6" s="3">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O6" s="3">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>25000</v>
+      </c>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5">
         <v>45574</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N7" s="3">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O7" s="3">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>25000</v>
+      </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5">
         <v>45575</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N8" s="3">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O8" s="3">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>25000</v>
+      </c>
       <c r="R8" s="6"/>
     </row>
   </sheetData>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_BATTERY.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_BATTERY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4435CC5A-55DF-429B-8E6F-3508CEB34031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ACC2F8-13A3-49D6-A3FD-18FA0062B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18E424C9-512F-47B1-A09D-BF457F184610}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Giá mua</t>
   </si>
@@ -79,30 +79,6 @@
   </si>
   <si>
     <t>NV20241112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0170
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0171
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0172
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0173
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0174
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0175
-</t>
   </si>
   <si>
     <t>PHỤ KIỆN</t>
@@ -269,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -288,6 +264,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -604,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8F569A-15AF-49B9-BA0F-43E4AFF2337F}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>1</v>
@@ -685,35 +664,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
+      <c r="B3" s="4" t="str">
+        <f t="shared" ref="B3:B8" ca="1" si="0">"PK_BD_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
+        <v>PK_BD_56493</v>
       </c>
       <c r="C3" s="5">
         <v>45570</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3">
@@ -726,42 +706,43 @@
         <v>22000</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="6">
         <v>25000</v>
       </c>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
+      <c r="B4" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_BD_99198</v>
       </c>
       <c r="C4" s="5">
         <v>45571</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="3">
@@ -774,42 +755,43 @@
         <v>22000</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="6">
         <v>25000</v>
       </c>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
+      <c r="B5" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_BD_64659</v>
       </c>
       <c r="C5" s="5">
         <v>45572</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="3">
@@ -822,42 +804,43 @@
         <v>22000</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="6">
         <v>25000</v>
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
+      <c r="B6" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_BD_06566</v>
       </c>
       <c r="C6" s="5">
         <v>45573</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="3">
@@ -870,42 +853,43 @@
         <v>22000</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="6">
         <v>25000</v>
       </c>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
+      <c r="B7" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_BD_83923</v>
       </c>
       <c r="C7" s="5">
         <v>45574</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="3">
@@ -918,42 +902,43 @@
         <v>22000</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="6">
         <v>25000</v>
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
+      <c r="B8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_BD_99374</v>
       </c>
       <c r="C8" s="5">
         <v>45575</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="3">
@@ -966,12 +951,15 @@
         <v>22000</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="6">
         <v>25000</v>
       </c>
       <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_BATTERY.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_BATTERY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ACC2F8-13A3-49D6-A3FD-18FA0062B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02AF26-680C-4232-8640-8AAEAA211CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18E424C9-512F-47B1-A09D-BF457F184610}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18E424C9-512F-47B1-A09D-BF457F184610}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Giá mua</t>
   </si>
@@ -82,36 +82,6 @@
   </si>
   <si>
     <t>PHỤ KIỆN</t>
-  </si>
-  <si>
-    <t>BÌNH ĐIỆN</t>
-  </si>
-  <si>
-    <t>PTE15N Pro</t>
-  </si>
-  <si>
-    <t>SN-202508-00001</t>
-  </si>
-  <si>
-    <t>SN-202508-00002</t>
-  </si>
-  <si>
-    <t>SN-202508-00003</t>
-  </si>
-  <si>
-    <t>SN-202508-00004</t>
-  </si>
-  <si>
-    <t>SN-202508-00005</t>
-  </si>
-  <si>
-    <t>SN-202508-00006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lithium</t>
-  </si>
-  <si>
-    <t>40AH</t>
   </si>
   <si>
     <t>Đại lý A</t>
@@ -142,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +148,14 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +165,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF7CAAC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -265,8 +253,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8F569A-15AF-49B9-BA0F-43E4AFF2337F}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +597,8 @@
     <col min="7" max="7" width="31.109375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="36.77734375" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1"/>
+    <col min="11" max="11" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -612,7 +610,7 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -621,13 +619,13 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -636,28 +634,28 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="N2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="R2" s="2" t="s">
@@ -670,7 +668,7 @@
       </c>
       <c r="B3" s="4" t="str">
         <f t="shared" ref="B3:B8" ca="1" si="0">"PK_BD_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_BD_56493</v>
+        <v>PK_BD_76458</v>
       </c>
       <c r="C3" s="5">
         <v>45570</v>
@@ -678,38 +676,57 @@
       <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
+      <c r="E3" s="6" t="str">
+        <f ca="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
+        <v>PPT_4</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
+"8FB15","8FD25","7FBEU18",
+"FB25-12","FD30T-16",
+"J2.5XN","H3.0FT",
+"FE4P16","FE4P25","FE3D20N")</f>
+        <v>H3.0FT</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f ca="1">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
+        <v>SN-202509-46795</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>28</v>
+      <c r="J3" s="4" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,5),"Lithium-ion","Lead–Acid","Diesel","LPG","Gasoline")</f>
+        <v>Diesel</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"Lithium-ion","Lead–Acid")
+ &amp; " | " &amp;
+CHOOSE(RANDBETWEEN(1,4),24,36,48,72) &amp; "V"
+ &amp; " | " &amp;
+CHOOSE(RANDBETWEEN(1,3),240,360,480) &amp; "Ah"
+ &amp; " | " &amp;
+RANDBETWEEN(200,600) &amp; " kg"</f>
+        <v>Lithium-ion | 72V | 360Ah | 460 kg</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3">
-        <v>20000</v>
+        <f ca="1">RANDBETWEEN(1,5)*10</f>
+        <v>30</v>
       </c>
       <c r="N3" s="3">
-        <v>21000</v>
+        <f ca="1">RANDBETWEEN(16,20)*10</f>
+        <v>190</v>
       </c>
       <c r="O3" s="3">
-        <v>22000</v>
+        <f ca="1">RANDBETWEEN(6,10)*10</f>
+        <v>70</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="6">
-        <v>25000</v>
+        <f ca="1">RANDBETWEEN(11,15)*10</f>
+        <v>120</v>
       </c>
       <c r="R3" s="6"/>
     </row>
@@ -719,7 +736,7 @@
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_99198</v>
+        <v>PK_BD_90595</v>
       </c>
       <c r="C4" s="5">
         <v>45571</v>
@@ -727,35 +744,53 @@
       <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
+      <c r="E4" s="6" t="str">
+        <f t="shared" ref="E4:E8" ca="1" si="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
+        <v>PPT_5</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" ref="F4:F8" ca="1" si="2">CHOOSE(RANDBETWEEN(1,11),
+"8FB15","8FD25","7FBEU18",
+"FB25-12","FD30T-16",
+"J2.5XN","H3.0FT",
+"FE4P16","FE4P25","FE3D20N")</f>
+        <v>H3.0FT</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ref="G4:G8" ca="1" si="3">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
+        <v>SN-202509-92906</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
+      <c r="J4" s="4" t="str">
+        <f t="shared" ref="J4:J8" ca="1" si="4">CHOOSE(RANDBETWEEN(1,5),"Lithium-ion","Lead–Acid","Diesel","LPG","Gasoline")</f>
+        <v>Diesel</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"Lithium-ion","Lead–Acid")
+ &amp; " | " &amp;
+CHOOSE(RANDBETWEEN(1,4),24,36,48,72) &amp; "V"
+ &amp; " | " &amp;
+CHOOSE(RANDBETWEEN(1,3),240,360,480) &amp; "Ah"
+ &amp; " | " &amp;
+RANDBETWEEN(200,600) &amp; " kg"</f>
+        <v>Lead–Acid | 36V | 240Ah | 276 kg</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="3">
-        <v>20000</v>
+        <f t="shared" ref="M4:M8" ca="1" si="5">RANDBETWEEN(1,5)*10</f>
+        <v>10</v>
       </c>
       <c r="N4" s="3">
-        <v>21000</v>
+        <f t="shared" ref="N4:N8" ca="1" si="6">RANDBETWEEN(16,20)*10</f>
+        <v>200</v>
       </c>
       <c r="O4" s="3">
-        <v>22000</v>
+        <f t="shared" ref="O4:O8" ca="1" si="7">RANDBETWEEN(6,10)*10</f>
+        <v>90</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="6">
         <v>25000</v>
@@ -768,7 +803,7 @@
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_64659</v>
+        <v>PK_BD_01900</v>
       </c>
       <c r="C5" s="5">
         <v>45572</v>
@@ -776,35 +811,49 @@
       <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
+      <c r="E5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_2</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>7FBEU18</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-97663</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
+      <c r="J5" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Lead–Acid</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f t="shared" ref="K5:K8" ca="1" si="8">CHOOSE(RANDBETWEEN(1,2),"Lithium-ion","Lead–Acid")
+ &amp; " | " &amp;
+CHOOSE(RANDBETWEEN(1,4),24,36,48,72) &amp; "V"
+ &amp; " | " &amp;
+CHOOSE(RANDBETWEEN(1,3),240,360,480) &amp; "Ah"
+ &amp; " | " &amp;
+RANDBETWEEN(200,600) &amp; " kg"</f>
+        <v>Lithium-ion | 48V | 480Ah | 378 kg</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="3">
-        <v>20000</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
       </c>
       <c r="N5" s="3">
-        <v>21000</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>190</v>
       </c>
       <c r="O5" s="3">
-        <v>22000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>70</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="6">
         <v>25000</v>
@@ -817,7 +866,7 @@
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_06566</v>
+        <v>PK_BD_39493</v>
       </c>
       <c r="C6" s="5">
         <v>45573</v>
@@ -825,35 +874,43 @@
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
+      <c r="E6" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_1</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>7FBEU18</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-11051</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>28</v>
+      <c r="J6" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Gasoline</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Lead–Acid | 48V | 240Ah | 572 kg</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="3">
-        <v>20000</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
       </c>
       <c r="N6" s="3">
-        <v>21000</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>180</v>
       </c>
       <c r="O6" s="3">
-        <v>22000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>90</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="6">
         <v>25000</v>
@@ -866,7 +923,7 @@
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_83923</v>
+        <v>PK_BD_38059</v>
       </c>
       <c r="C7" s="5">
         <v>45574</v>
@@ -874,35 +931,43 @@
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
+      <c r="E7" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_4</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>FB25-12</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-43835</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>28</v>
+      <c r="J7" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Lead–Acid</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Lithium-ion | 24V | 360Ah | 323 kg</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="3">
-        <v>20000</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
       </c>
       <c r="N7" s="3">
-        <v>21000</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>180</v>
       </c>
       <c r="O7" s="3">
-        <v>22000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="6">
         <v>25000</v>
@@ -915,7 +980,7 @@
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_99374</v>
+        <v>PK_BD_59227</v>
       </c>
       <c r="C8" s="5">
         <v>45575</v>
@@ -923,35 +988,43 @@
       <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>26</v>
+      <c r="E8" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_5</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>FE4P25</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-60374</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>28</v>
+      <c r="J8" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Gasoline</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Lead–Acid | 72V | 480Ah | 383 kg</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="3">
-        <v>20000</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
       </c>
       <c r="N8" s="3">
-        <v>21000</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>160</v>
       </c>
       <c r="O8" s="3">
-        <v>22000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>70</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="6">
         <v>25000</v>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_BATTERY.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_BATTERY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MeU\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02AF26-680C-4232-8640-8AAEAA211CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56D0DE-0400-414B-B150-3F260AF8EB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18E424C9-512F-47B1-A09D-BF457F184610}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18E424C9-512F-47B1-A09D-BF457F184610}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Giá mua</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Giá bán R1</t>
+  </si>
+  <si>
+    <t>Giá khác</t>
   </si>
 </sst>
 </file>
@@ -580,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8F569A-15AF-49B9-BA0F-43E4AFF2337F}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,12 +604,12 @@
     <col min="11" max="11" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -653,22 +656,25 @@
         <v>26</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="str">
         <f t="shared" ref="B3:B8" ca="1" si="0">"PK_BD_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_BD_76458</v>
+        <v>PK_BD_49203</v>
       </c>
       <c r="C3" s="5">
         <v>45570</v>
@@ -678,7 +684,7 @@
       </c>
       <c r="E3" s="6" t="str">
         <f ca="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
-        <v>PPT_4</v>
+        <v>PPT_3</v>
       </c>
       <c r="F3" s="4" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,11),
@@ -686,17 +692,17 @@
 "FB25-12","FD30T-16",
 "J2.5XN","H3.0FT",
 "FE4P16","FE4P25","FE3D20N")</f>
-        <v>H3.0FT</v>
+        <v>8FD25</v>
       </c>
       <c r="G3" s="3" t="str">
         <f ca="1">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202509-46795</v>
+        <v>SN-202510-03580</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,5),"Lithium-ion","Lead–Acid","Diesel","LPG","Gasoline")</f>
-        <v>Diesel</v>
+        <v>LPG</v>
       </c>
       <c r="K3" s="3" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),"Lithium-ion","Lead–Acid")
@@ -706,37 +712,41 @@
 CHOOSE(RANDBETWEEN(1,3),240,360,480) &amp; "Ah"
  &amp; " | " &amp;
 RANDBETWEEN(200,600) &amp; " kg"</f>
-        <v>Lithium-ion | 72V | 360Ah | 460 kg</v>
+        <v>Lead–Acid | 24V | 480Ah | 287 kg</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3">
         <f ca="1">RANDBETWEEN(1,5)*10</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N3" s="3">
         <f ca="1">RANDBETWEEN(16,20)*10</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="O3" s="3">
         <f ca="1">RANDBETWEEN(6,10)*10</f>
         <v>70</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="3">
+        <f ca="1">RANDBETWEEN(6,10)*10</f>
+        <v>60</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <f ca="1">RANDBETWEEN(11,15)*10</f>
-        <v>120</v>
-      </c>
-      <c r="R3" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_90595</v>
+        <v>PK_BD_03981</v>
       </c>
       <c r="C4" s="5">
         <v>45571</v>
@@ -746,7 +756,7 @@
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" ref="E4:E8" ca="1" si="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
-        <v>PPT_5</v>
+        <v>PPT_3</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" ref="F4:F8" ca="1" si="2">CHOOSE(RANDBETWEEN(1,11),
@@ -754,17 +764,17 @@
 "FB25-12","FD30T-16",
 "J2.5XN","H3.0FT",
 "FE4P16","FE4P25","FE3D20N")</f>
-        <v>H3.0FT</v>
+        <v>FD30T-16</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G8" ca="1" si="3">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202509-92906</v>
+        <v>SN-202510-15116</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="4" t="str">
         <f t="shared" ref="J4:J8" ca="1" si="4">CHOOSE(RANDBETWEEN(1,5),"Lithium-ion","Lead–Acid","Diesel","LPG","Gasoline")</f>
-        <v>Diesel</v>
+        <v>LPG</v>
       </c>
       <c r="K4" s="3" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),"Lithium-ion","Lead–Acid")
@@ -774,36 +784,40 @@
 CHOOSE(RANDBETWEEN(1,3),240,360,480) &amp; "Ah"
  &amp; " | " &amp;
 RANDBETWEEN(200,600) &amp; " kg"</f>
-        <v>Lead–Acid | 36V | 240Ah | 276 kg</v>
+        <v>Lead–Acid | 48V | 240Ah | 209 kg</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M8" ca="1" si="5">RANDBETWEEN(1,5)*10</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" ref="N4:N8" ca="1" si="6">RANDBETWEEN(16,20)*10</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:O8" ca="1" si="7">RANDBETWEEN(6,10)*10</f>
+        <f t="shared" ref="O4:P8" ca="1" si="7">RANDBETWEEN(6,10)*10</f>
+        <v>80</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ca="1" si="7"/>
         <v>90</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>25000</v>
       </c>
-      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_01900</v>
+        <v>PK_BD_23924</v>
       </c>
       <c r="C5" s="5">
         <v>45572</v>
@@ -813,21 +827,21 @@
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PPT_2</v>
+        <v>PPT_1</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7FBEU18</v>
+        <v>8FD25</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-97663</v>
+        <v>SN-202510-14074</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Lead–Acid</v>
+        <v>Gasoline</v>
       </c>
       <c r="K5" s="3" t="str">
         <f t="shared" ref="K5:K8" ca="1" si="8">CHOOSE(RANDBETWEEN(1,2),"Lithium-ion","Lead–Acid")
@@ -837,36 +851,40 @@
 CHOOSE(RANDBETWEEN(1,3),240,360,480) &amp; "Ah"
  &amp; " | " &amp;
 RANDBETWEEN(200,600) &amp; " kg"</f>
-        <v>Lithium-ion | 48V | 480Ah | 378 kg</v>
+        <v>Lithium-ion | 48V | 360Ah | 555 kg</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ca="1" si="7"/>
         <v>70</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <v>25000</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_39493</v>
+        <v>PK_BD_29999</v>
       </c>
       <c r="C6" s="5">
         <v>45573</v>
@@ -876,7 +894,7 @@
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PPT_1</v>
+        <v>PPT_5</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -884,17 +902,17 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-11051</v>
+        <v>SN-202510-94266</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Gasoline</v>
+        <v>Lithium-ion</v>
       </c>
       <c r="K6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Lead–Acid | 48V | 240Ah | 572 kg</v>
+        <v>Lithium-ion | 48V | 480Ah | 286 kg</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="3">
@@ -903,27 +921,31 @@
       </c>
       <c r="N6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" ca="1" si="7"/>
         <v>90</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>25000</v>
       </c>
-      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_38059</v>
+        <v>PK_BD_07379</v>
       </c>
       <c r="C7" s="5">
         <v>45574</v>
@@ -933,30 +955,30 @@
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PPT_4</v>
+        <v>PPT_1</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FB25-12</v>
+        <v>H3.0FT</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-43835</v>
+        <v>SN-202510-39980</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Lead–Acid</v>
+        <v>Gasoline</v>
       </c>
       <c r="K7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Lithium-ion | 24V | 360Ah | 323 kg</v>
+        <v>Lead–Acid | 36V | 480Ah | 427 kg</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -964,23 +986,27 @@
       </c>
       <c r="O7" s="3">
         <f t="shared" ca="1" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" ca="1" si="7"/>
         <v>80</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>25000</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_59227</v>
+        <v>PK_BD_63508</v>
       </c>
       <c r="C8" s="5">
         <v>45575</v>
@@ -990,48 +1016,52 @@
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PPT_5</v>
+        <v>PPT_1</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FE4P25</v>
+        <v>FE3D20N</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-60374</v>
+        <v>SN-202510-86783</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Gasoline</v>
+        <v>Lithium-ion</v>
       </c>
       <c r="K8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Lead–Acid | 72V | 480Ah | 383 kg</v>
+        <v>Lead–Acid | 72V | 360Ah | 395 kg</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" ca="1" si="7"/>
         <v>70</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <v>25000</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
     </row>
   </sheetData>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_BATTERY.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_BATTERY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MeU\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56D0DE-0400-414B-B150-3F260AF8EB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD1FC6-2FE2-4846-A707-D096D4842959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18E424C9-512F-47B1-A09D-BF457F184610}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Giá mua</t>
   </si>
@@ -109,6 +109,96 @@
   </si>
   <si>
     <t>Giá khác</t>
+  </si>
+  <si>
+    <t>PK_BD_40387</t>
+  </si>
+  <si>
+    <t>PPT_4</t>
+  </si>
+  <si>
+    <t>J2.5XN</t>
+  </si>
+  <si>
+    <t>SN-202510-77772</t>
+  </si>
+  <si>
+    <t>Lithium-ion</t>
+  </si>
+  <si>
+    <t>Lithium-ion | 48V | 240Ah | 571 kg</t>
+  </si>
+  <si>
+    <t>PK_BD_43688</t>
+  </si>
+  <si>
+    <t>PPT_5</t>
+  </si>
+  <si>
+    <t>FE4P25</t>
+  </si>
+  <si>
+    <t>SN-202510-22742</t>
+  </si>
+  <si>
+    <t>Lead–Acid</t>
+  </si>
+  <si>
+    <t>Lead–Acid | 36V | 240Ah | 441 kg</t>
+  </si>
+  <si>
+    <t>PK_BD_38077</t>
+  </si>
+  <si>
+    <t>PPT_3</t>
+  </si>
+  <si>
+    <t>FE3D20N</t>
+  </si>
+  <si>
+    <t>SN-202510-23246</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Lithium-ion | 24V | 360Ah | 233 kg</t>
+  </si>
+  <si>
+    <t>PK_BD_71071</t>
+  </si>
+  <si>
+    <t>8FD25</t>
+  </si>
+  <si>
+    <t>SN-202510-65078</t>
+  </si>
+  <si>
+    <t>Lead–Acid | 24V | 360Ah | 591 kg</t>
+  </si>
+  <si>
+    <t>PK_BD_22577</t>
+  </si>
+  <si>
+    <t>SN-202510-23973</t>
+  </si>
+  <si>
+    <t>Lead–Acid | 24V | 240Ah | 368 kg</t>
+  </si>
+  <si>
+    <t>PK_BD_18828</t>
+  </si>
+  <si>
+    <t>FD30T-16</t>
+  </si>
+  <si>
+    <t>SN-202510-45870</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Lithium-ion | 72V | 360Ah | 559 kg</t>
   </si>
 </sst>
 </file>
@@ -184,22 +274,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -218,46 +297,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -265,9 +316,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8F569A-15AF-49B9-BA0F-43E4AFF2337F}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,55 +662,55 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
@@ -669,400 +718,313 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="str">
-        <f t="shared" ref="B3:B8" ca="1" si="0">"PK_BD_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_BD_49203</v>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="5">
         <v>45570</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="str">
-        <f ca="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
-        <v>PPT_3</v>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
-"8FB15","8FD25","7FBEU18",
-"FB25-12","FD30T-16",
-"J2.5XN","H3.0FT",
-"FE4P16","FE4P25","FE3D20N")</f>
-        <v>8FD25</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f ca="1">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202510-03580</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="4" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,5),"Lithium-ion","Lead–Acid","Diesel","LPG","Gasoline")</f>
-        <v>LPG</v>
-      </c>
-      <c r="K3" s="3" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"Lithium-ion","Lead–Acid")
- &amp; " | " &amp;
-CHOOSE(RANDBETWEEN(1,4),24,36,48,72) &amp; "V"
- &amp; " | " &amp;
-CHOOSE(RANDBETWEEN(1,3),240,360,480) &amp; "Ah"
- &amp; " | " &amp;
-RANDBETWEEN(200,600) &amp; " kg"</f>
-        <v>Lead–Acid | 24V | 480Ah | 287 kg</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
-        <f ca="1">RANDBETWEEN(1,5)*10</f>
-        <v>50</v>
-      </c>
-      <c r="N3" s="3">
-        <f ca="1">RANDBETWEEN(16,20)*10</f>
-        <v>200</v>
-      </c>
-      <c r="O3" s="3">
-        <f ca="1">RANDBETWEEN(6,10)*10</f>
-        <v>70</v>
-      </c>
-      <c r="P3" s="3">
-        <f ca="1">RANDBETWEEN(6,10)*10</f>
-        <v>60</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5">
+        <v>160</v>
+      </c>
+      <c r="O3" s="5">
+        <v>80</v>
+      </c>
+      <c r="P3" s="5">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="6">
-        <f ca="1">RANDBETWEEN(11,15)*10</f>
-        <v>110</v>
-      </c>
-      <c r="S3" s="6"/>
+      <c r="R3" s="5">
+        <v>130</v>
+      </c>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_03981</v>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="5">
         <v>45571</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" ref="E4:E8" ca="1" si="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
-        <v>PPT_3</v>
-      </c>
-      <c r="F4" s="4" t="str">
-        <f t="shared" ref="F4:F8" ca="1" si="2">CHOOSE(RANDBETWEEN(1,11),
-"8FB15","8FD25","7FBEU18",
-"FB25-12","FD30T-16",
-"J2.5XN","H3.0FT",
-"FE4P16","FE4P25","FE3D20N")</f>
-        <v>FD30T-16</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4:G8" ca="1" si="3">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202510-15116</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="4" t="str">
-        <f t="shared" ref="J4:J8" ca="1" si="4">CHOOSE(RANDBETWEEN(1,5),"Lithium-ion","Lead–Acid","Diesel","LPG","Gasoline")</f>
-        <v>LPG</v>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"Lithium-ion","Lead–Acid")
- &amp; " | " &amp;
-CHOOSE(RANDBETWEEN(1,4),24,36,48,72) &amp; "V"
- &amp; " | " &amp;
-CHOOSE(RANDBETWEEN(1,3),240,360,480) &amp; "Ah"
- &amp; " | " &amp;
-RANDBETWEEN(200,600) &amp; " kg"</f>
-        <v>Lead–Acid | 48V | 240Ah | 209 kg</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3">
-        <f t="shared" ref="M4:M8" ca="1" si="5">RANDBETWEEN(1,5)*10</f>
-        <v>40</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" ref="N4:N8" ca="1" si="6">RANDBETWEEN(16,20)*10</f>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5">
         <v>180</v>
       </c>
-      <c r="O4" s="3">
-        <f t="shared" ref="O4:P8" ca="1" si="7">RANDBETWEEN(6,10)*10</f>
-        <v>80</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" ca="1" si="7"/>
+      <c r="O4" s="5">
         <v>90</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="P4" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>25000</v>
       </c>
-      <c r="S4" s="6"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_23924</v>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="5">
         <v>45572</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_1</v>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>8FD25</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-14074</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Gasoline</v>
-      </c>
-      <c r="K5" s="3" t="str">
-        <f t="shared" ref="K5:K8" ca="1" si="8">CHOOSE(RANDBETWEEN(1,2),"Lithium-ion","Lead–Acid")
- &amp; " | " &amp;
-CHOOSE(RANDBETWEEN(1,4),24,36,48,72) &amp; "V"
- &amp; " | " &amp;
-CHOOSE(RANDBETWEEN(1,3),240,360,480) &amp; "Ah"
- &amp; " | " &amp;
-RANDBETWEEN(200,600) &amp; " kg"</f>
-        <v>Lithium-ion | 48V | 360Ah | 555 kg</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" ca="1" si="7"/>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
+        <v>10</v>
+      </c>
+      <c r="N5" s="5">
+        <v>190</v>
+      </c>
+      <c r="O5" s="5">
         <v>70</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="P5" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>25000</v>
       </c>
-      <c r="S5" s="6"/>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_29999</v>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="5">
         <v>45573</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_5</v>
-      </c>
-      <c r="F6" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>7FBEU18</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-94266</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Lithium-ion</v>
-      </c>
-      <c r="K6" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Lithium-ion | 48V | 480Ah | 286 kg</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>200</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="Q6" s="3" t="s">
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5">
+        <v>190</v>
+      </c>
+      <c r="O6" s="5">
+        <v>60</v>
+      </c>
+      <c r="P6" s="5">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>25000</v>
       </c>
-      <c r="S6" s="6"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_07379</v>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="5">
         <v>45574</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_1</v>
-      </c>
-      <c r="F7" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>H3.0FT</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-39980</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Gasoline</v>
-      </c>
-      <c r="K7" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Lead–Acid | 36V | 480Ah | 427 kg</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
+        <v>50</v>
+      </c>
+      <c r="N7" s="5">
         <v>180</v>
       </c>
-      <c r="O7" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="Q7" s="3" t="s">
+      <c r="O7" s="5">
+        <v>70</v>
+      </c>
+      <c r="P7" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>25000</v>
       </c>
-      <c r="S7" s="6"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_BD_63508</v>
+      <c r="B8" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="5">
         <v>45575</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_1</v>
-      </c>
-      <c r="F8" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>FE3D20N</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-86783</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Lithium-ion</v>
-      </c>
-      <c r="K8" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Lead–Acid | 72V | 360Ah | 395 kg</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>170</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" ca="1" si="7"/>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
+        <v>20</v>
+      </c>
+      <c r="N8" s="5">
+        <v>200</v>
+      </c>
+      <c r="O8" s="5">
         <v>80</v>
       </c>
-      <c r="P8" s="3">
-        <f t="shared" ca="1" si="7"/>
+      <c r="P8" s="5">
         <v>70</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>25000</v>
       </c>
-      <c r="S8" s="6"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
